--- a/Hardware/BOM/Orders.xlsx
+++ b/Hardware/BOM/Orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C0915-0111-4FA8-84E5-30BA27C27643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A9CE7-B5F9-4978-8D76-A16887DC2A4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Quantité</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>canbus transciever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">994-0402DC-27NXGRW </t>
+  </si>
+  <si>
+    <t>RF inductor</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <dimension ref="A8:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,13 +752,24 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.41</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
